--- a/_testing/output/tablex_test9.xlsx
+++ b/_testing/output/tablex_test9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="23">
   <si>
     <t>First Table</t>
   </si>
@@ -89,10 +89,638 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="149">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="297">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -731,7 +1359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="221">
     <border>
       <left/>
       <right/>
@@ -1461,11 +2089,733 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1880,6 +3230,422 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="148" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1898,74 +3664,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" style="3" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" style="4" customWidth="true"/>
+    <col min="1" max="1" width="2.7109375" style="112" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" style="113" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" style="114" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="30" customHeight="true">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="111" customFormat="true" ht="30" customHeight="true">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="147" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="148" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="155" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="157" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="159" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1984,107 +3750,107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="51" customWidth="true"/>
-    <col min="2" max="2" width="17.7109375" style="52" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" style="53" customWidth="true"/>
+    <col min="1" max="1" width="2.7109375" style="161" customWidth="true"/>
+    <col min="2" max="2" width="17.7109375" style="162" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" style="163" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="true" ht="30" customHeight="true">
-      <c r="A1" s="66" t="s">
+    <row r="1" s="160" customFormat="true" ht="30" customHeight="true">
+      <c r="A1" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="176" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="199" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="200" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="210" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="212" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="214" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="216" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="218" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="220" t="s">
         <v>22</v>
       </c>
     </row>
